--- a/task_list.xlsx
+++ b/task_list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ebian\Google Drive\GT OMSCS\BOLD\spring2022\BOLD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D2287E0-D547-4B22-91E3-12CE2360C66A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEE8E87B-6D42-4475-8338-932F40C04238}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="31710" yWindow="2730" windowWidth="20520" windowHeight="12690" xr2:uid="{12C7CA1B-1CEA-446F-8D71-3512197E82EF}"/>
   </bookViews>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="10">
   <si>
     <t xml:space="preserve">Task Description </t>
   </si>
@@ -90,6 +90,9 @@
   </si>
   <si>
     <t>Done</t>
+  </si>
+  <si>
+    <t>Total Hours</t>
   </si>
 </sst>
 </file>
@@ -144,7 +147,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -367,11 +370,33 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -446,6 +471,24 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -840,10 +883,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6AFE422-245F-40F1-A31D-BB3930EA9DFA}">
-  <dimension ref="A1:H78"/>
+  <dimension ref="A1:H75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="B79" sqref="B79"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="C87" sqref="C87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -888,7 +931,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="8">
-        <v>4.0999999999999996</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="C3" s="9" t="s">
         <v>4</v>
@@ -902,7 +945,7 @@
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="23"/>
       <c r="B4" s="6">
-        <v>4.2</v>
+        <v>1.2</v>
       </c>
       <c r="C4" s="11" t="s">
         <v>5</v>
@@ -915,9 +958,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="23"/>
-      <c r="B5" s="6">
-        <v>4.3</v>
-      </c>
+      <c r="B5" s="6"/>
       <c r="C5" s="11"/>
       <c r="D5" s="12"/>
       <c r="E5" s="12"/>
@@ -925,9 +966,7 @@
     </row>
     <row r="6" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="24"/>
-      <c r="B6" s="7">
-        <v>4.4000000000000004</v>
-      </c>
+      <c r="B6" s="7"/>
       <c r="C6" s="13"/>
       <c r="D6" s="14"/>
       <c r="E6" s="14"/>
@@ -937,36 +976,28 @@
       <c r="A7" s="22">
         <v>5</v>
       </c>
-      <c r="B7" s="8">
-        <v>5.0999999999999996</v>
-      </c>
+      <c r="B7" s="8"/>
       <c r="C7" s="9"/>
       <c r="D7" s="10"/>
       <c r="E7" s="15"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="23"/>
-      <c r="B8" s="6">
-        <v>5.2</v>
-      </c>
+      <c r="B8" s="6"/>
       <c r="C8" s="11"/>
       <c r="D8" s="12"/>
       <c r="E8" s="12"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
-      <c r="B9" s="6">
-        <v>5.3</v>
-      </c>
+      <c r="B9" s="6"/>
       <c r="C9" s="11"/>
       <c r="D9" s="12"/>
       <c r="E9" s="12"/>
     </row>
     <row r="10" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="24"/>
-      <c r="B10" s="7">
-        <v>5.4</v>
-      </c>
+      <c r="B10" s="7"/>
       <c r="C10" s="13"/>
       <c r="D10" s="14"/>
       <c r="E10" s="14"/>
@@ -975,36 +1006,28 @@
       <c r="A11" s="22">
         <v>6</v>
       </c>
-      <c r="B11" s="8">
-        <v>6.1</v>
-      </c>
+      <c r="B11" s="8"/>
       <c r="C11" s="9"/>
       <c r="D11" s="10"/>
       <c r="E11" s="15"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="23"/>
-      <c r="B12" s="6">
-        <v>6.2</v>
-      </c>
+      <c r="B12" s="6"/>
       <c r="C12" s="11"/>
       <c r="D12" s="12"/>
       <c r="E12" s="12"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="23"/>
-      <c r="B13" s="6">
-        <v>6.3</v>
-      </c>
+      <c r="B13" s="6"/>
       <c r="C13" s="11"/>
       <c r="D13" s="12"/>
       <c r="E13" s="12"/>
     </row>
     <row r="14" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="24"/>
-      <c r="B14" s="7">
-        <v>6.4</v>
-      </c>
+      <c r="B14" s="7"/>
       <c r="C14" s="13"/>
       <c r="D14" s="14"/>
       <c r="E14" s="14"/>
@@ -1013,36 +1036,28 @@
       <c r="A15" s="22">
         <v>7</v>
       </c>
-      <c r="B15" s="8">
-        <v>7.1</v>
-      </c>
+      <c r="B15" s="8"/>
       <c r="C15" s="9"/>
       <c r="D15" s="10"/>
       <c r="E15" s="15"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="23"/>
-      <c r="B16" s="6">
-        <v>7.2</v>
-      </c>
+      <c r="B16" s="6"/>
       <c r="C16" s="11"/>
       <c r="D16" s="12"/>
       <c r="E16" s="12"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="23"/>
-      <c r="B17" s="6">
-        <v>7.3</v>
-      </c>
+      <c r="B17" s="6"/>
       <c r="C17" s="11"/>
       <c r="D17" s="12"/>
       <c r="E17" s="12"/>
     </row>
     <row r="18" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="24"/>
-      <c r="B18" s="7">
-        <v>7.4</v>
-      </c>
+      <c r="B18" s="7"/>
       <c r="C18" s="13"/>
       <c r="D18" s="14"/>
       <c r="E18" s="14"/>
@@ -1051,36 +1066,28 @@
       <c r="A19" s="22">
         <v>8</v>
       </c>
-      <c r="B19" s="8">
-        <v>8.1</v>
-      </c>
+      <c r="B19" s="8"/>
       <c r="C19" s="9"/>
       <c r="D19" s="10"/>
       <c r="E19" s="15"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="23"/>
-      <c r="B20" s="6">
-        <v>8.1999999999999993</v>
-      </c>
+      <c r="B20" s="6"/>
       <c r="C20" s="11"/>
       <c r="D20" s="12"/>
       <c r="E20" s="12"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="23"/>
-      <c r="B21" s="6">
-        <v>8.3000000000000007</v>
-      </c>
+      <c r="B21" s="6"/>
       <c r="C21" s="11"/>
       <c r="D21" s="12"/>
       <c r="E21" s="12"/>
     </row>
     <row r="22" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="24"/>
-      <c r="B22" s="7">
-        <v>8.4</v>
-      </c>
+      <c r="B22" s="7"/>
       <c r="C22" s="13"/>
       <c r="D22" s="14"/>
       <c r="E22" s="14"/>
@@ -1089,36 +1096,28 @@
       <c r="A23" s="22">
         <v>9</v>
       </c>
-      <c r="B23" s="8">
-        <v>9.1</v>
-      </c>
+      <c r="B23" s="8"/>
       <c r="C23" s="9"/>
       <c r="D23" s="10"/>
       <c r="E23" s="15"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="23"/>
-      <c r="B24" s="6">
-        <v>9.1999999999999993</v>
-      </c>
+      <c r="B24" s="6"/>
       <c r="C24" s="11"/>
       <c r="D24" s="12"/>
       <c r="E24" s="12"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="23"/>
-      <c r="B25" s="6">
-        <v>9.3000000000000007</v>
-      </c>
+      <c r="B25" s="6"/>
       <c r="C25" s="11"/>
       <c r="D25" s="12"/>
       <c r="E25" s="12"/>
     </row>
     <row r="26" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="24"/>
-      <c r="B26" s="7">
-        <v>9.4</v>
-      </c>
+      <c r="B26" s="7"/>
       <c r="C26" s="13"/>
       <c r="D26" s="14"/>
       <c r="E26" s="14"/>
@@ -1127,9 +1126,7 @@
       <c r="A27" s="22">
         <v>10</v>
       </c>
-      <c r="B27" s="8">
-        <v>10.1</v>
-      </c>
+      <c r="B27" s="8"/>
       <c r="C27" s="9"/>
       <c r="D27" s="10"/>
       <c r="E27" s="10"/>
@@ -1137,9 +1134,7 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="23"/>
-      <c r="B28" s="6">
-        <v>10.199999999999999</v>
-      </c>
+      <c r="B28" s="6"/>
       <c r="C28" s="11"/>
       <c r="D28" s="12"/>
       <c r="E28" s="12"/>
@@ -1147,9 +1142,7 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="23"/>
-      <c r="B29" s="6">
-        <v>10.3</v>
-      </c>
+      <c r="B29" s="6"/>
       <c r="C29" s="11"/>
       <c r="D29" s="12"/>
       <c r="E29" s="12"/>
@@ -1157,9 +1150,7 @@
     </row>
     <row r="30" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="24"/>
-      <c r="B30" s="7">
-        <v>10.4</v>
-      </c>
+      <c r="B30" s="7"/>
       <c r="C30" s="13"/>
       <c r="D30" s="14"/>
       <c r="E30" s="14"/>
@@ -1169,36 +1160,28 @@
       <c r="A31" s="22">
         <v>11</v>
       </c>
-      <c r="B31" s="8">
-        <v>11.1</v>
-      </c>
+      <c r="B31" s="8"/>
       <c r="C31" s="9"/>
       <c r="D31" s="10"/>
       <c r="E31" s="15"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="23"/>
-      <c r="B32" s="6">
-        <v>11.2</v>
-      </c>
+      <c r="B32" s="6"/>
       <c r="C32" s="11"/>
       <c r="D32" s="12"/>
       <c r="E32" s="12"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="23"/>
-      <c r="B33" s="6">
-        <v>11.3</v>
-      </c>
+      <c r="B33" s="6"/>
       <c r="C33" s="11"/>
       <c r="D33" s="12"/>
       <c r="E33" s="12"/>
     </row>
     <row r="34" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="24"/>
-      <c r="B34" s="7">
-        <v>11.4</v>
-      </c>
+      <c r="B34" s="7"/>
       <c r="C34" s="13"/>
       <c r="D34" s="14"/>
       <c r="E34" s="14"/>
@@ -1207,36 +1190,28 @@
       <c r="A35" s="22">
         <v>12</v>
       </c>
-      <c r="B35" s="8">
-        <v>12.1</v>
-      </c>
+      <c r="B35" s="8"/>
       <c r="C35" s="9"/>
       <c r="D35" s="10"/>
       <c r="E35" s="15"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="23"/>
-      <c r="B36" s="6">
-        <v>12.2</v>
-      </c>
+      <c r="B36" s="6"/>
       <c r="C36" s="11"/>
       <c r="D36" s="12"/>
       <c r="E36" s="12"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="23"/>
-      <c r="B37" s="6">
-        <v>12.3</v>
-      </c>
+      <c r="B37" s="6"/>
       <c r="C37" s="11"/>
       <c r="D37" s="12"/>
       <c r="E37" s="12"/>
     </row>
     <row r="38" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="24"/>
-      <c r="B38" s="7">
-        <v>12.4</v>
-      </c>
+      <c r="B38" s="7"/>
       <c r="C38" s="13"/>
       <c r="D38" s="14"/>
       <c r="E38" s="14"/>
@@ -1245,36 +1220,28 @@
       <c r="A39" s="22">
         <v>13</v>
       </c>
-      <c r="B39" s="8">
-        <v>13.1</v>
-      </c>
+      <c r="B39" s="8"/>
       <c r="C39" s="9"/>
       <c r="D39" s="10"/>
       <c r="E39" s="15"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="23"/>
-      <c r="B40" s="6">
-        <v>13.2</v>
-      </c>
+      <c r="B40" s="6"/>
       <c r="C40" s="11"/>
       <c r="D40" s="12"/>
       <c r="E40" s="12"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="23"/>
-      <c r="B41" s="6">
-        <v>13.3</v>
-      </c>
+      <c r="B41" s="6"/>
       <c r="C41" s="11"/>
       <c r="D41" s="12"/>
       <c r="E41" s="12"/>
     </row>
     <row r="42" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="24"/>
-      <c r="B42" s="7">
-        <v>13.4</v>
-      </c>
+      <c r="B42" s="7"/>
       <c r="C42" s="13"/>
       <c r="D42" s="14"/>
       <c r="E42" s="14"/>
@@ -1283,36 +1250,28 @@
       <c r="A43" s="22">
         <v>14</v>
       </c>
-      <c r="B43" s="8">
-        <v>14.1</v>
-      </c>
+      <c r="B43" s="8"/>
       <c r="C43" s="9"/>
       <c r="D43" s="10"/>
       <c r="E43" s="15"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="23"/>
-      <c r="B44" s="6">
-        <v>14.2</v>
-      </c>
+      <c r="B44" s="6"/>
       <c r="C44" s="11"/>
       <c r="D44" s="12"/>
       <c r="E44" s="12"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="23"/>
-      <c r="B45" s="6">
-        <v>14.3</v>
-      </c>
+      <c r="B45" s="6"/>
       <c r="C45" s="11"/>
       <c r="D45" s="12"/>
       <c r="E45" s="12"/>
     </row>
     <row r="46" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="24"/>
-      <c r="B46" s="7">
-        <v>14.4</v>
-      </c>
+      <c r="B46" s="7"/>
       <c r="C46" s="13"/>
       <c r="D46" s="14"/>
       <c r="E46" s="14"/>
@@ -1321,36 +1280,28 @@
       <c r="A47" s="22">
         <v>15</v>
       </c>
-      <c r="B47" s="8">
-        <v>15.1</v>
-      </c>
+      <c r="B47" s="8"/>
       <c r="C47" s="9"/>
       <c r="D47" s="10"/>
       <c r="E47" s="15"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="23"/>
-      <c r="B48" s="6">
-        <v>15.2</v>
-      </c>
+      <c r="B48" s="6"/>
       <c r="C48" s="11"/>
       <c r="D48" s="12"/>
       <c r="E48" s="12"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="23"/>
-      <c r="B49" s="6">
-        <v>15.3</v>
-      </c>
+      <c r="B49" s="6"/>
       <c r="C49" s="11"/>
       <c r="D49" s="12"/>
       <c r="E49" s="12"/>
     </row>
     <row r="50" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="24"/>
-      <c r="B50" s="7">
-        <v>15.4</v>
-      </c>
+      <c r="B50" s="7"/>
       <c r="C50" s="13"/>
       <c r="D50" s="14"/>
       <c r="E50" s="14"/>
@@ -1359,36 +1310,28 @@
       <c r="A51" s="22">
         <v>16</v>
       </c>
-      <c r="B51" s="8">
-        <v>16.100000000000001</v>
-      </c>
+      <c r="B51" s="8"/>
       <c r="C51" s="9"/>
       <c r="D51" s="10"/>
       <c r="E51" s="10"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="23"/>
-      <c r="B52" s="6">
-        <v>16.2</v>
-      </c>
+      <c r="B52" s="6"/>
       <c r="C52" s="11"/>
       <c r="D52" s="12"/>
       <c r="E52" s="12"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="23"/>
-      <c r="B53" s="6">
-        <v>16.3</v>
-      </c>
+      <c r="B53" s="6"/>
       <c r="C53" s="11"/>
       <c r="D53" s="12"/>
       <c r="E53" s="12"/>
     </row>
     <row r="54" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="24"/>
-      <c r="B54" s="7">
-        <v>16.399999999999999</v>
-      </c>
+      <c r="B54" s="7"/>
       <c r="C54" s="13"/>
       <c r="D54" s="14"/>
       <c r="E54" s="14"/>
@@ -1397,36 +1340,28 @@
       <c r="A55" s="22">
         <v>17</v>
       </c>
-      <c r="B55" s="8">
-        <v>17.100000000000001</v>
-      </c>
+      <c r="B55" s="8"/>
       <c r="C55" s="9"/>
       <c r="D55" s="10"/>
       <c r="E55" s="15"/>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="23"/>
-      <c r="B56" s="6">
-        <v>17.2</v>
-      </c>
+      <c r="B56" s="6"/>
       <c r="C56" s="11"/>
       <c r="D56" s="12"/>
       <c r="E56" s="12"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="23"/>
-      <c r="B57" s="6">
-        <v>17.3</v>
-      </c>
+      <c r="B57" s="6"/>
       <c r="C57" s="11"/>
       <c r="D57" s="12"/>
       <c r="E57" s="12"/>
     </row>
     <row r="58" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="24"/>
-      <c r="B58" s="7">
-        <v>17.399999999999999</v>
-      </c>
+      <c r="B58" s="7"/>
       <c r="C58" s="13"/>
       <c r="D58" s="14"/>
       <c r="E58" s="14"/>
@@ -1435,36 +1370,28 @@
       <c r="A59" s="22">
         <v>18</v>
       </c>
-      <c r="B59" s="8">
-        <v>18.100000000000001</v>
-      </c>
+      <c r="B59" s="8"/>
       <c r="C59" s="9"/>
       <c r="D59" s="10"/>
       <c r="E59" s="15"/>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="23"/>
-      <c r="B60" s="6">
-        <v>18.2</v>
-      </c>
+      <c r="B60" s="6"/>
       <c r="C60" s="11"/>
       <c r="D60" s="12"/>
       <c r="E60" s="12"/>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="23"/>
-      <c r="B61" s="6">
-        <v>18.3</v>
-      </c>
+      <c r="B61" s="6"/>
       <c r="C61" s="11"/>
       <c r="D61" s="12"/>
       <c r="E61" s="12"/>
     </row>
     <row r="62" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="24"/>
-      <c r="B62" s="7">
-        <v>18.399999999999999</v>
-      </c>
+      <c r="B62" s="7"/>
       <c r="C62" s="13"/>
       <c r="D62" s="14"/>
       <c r="E62" s="14"/>
@@ -1473,36 +1400,28 @@
       <c r="A63" s="22">
         <v>19</v>
       </c>
-      <c r="B63" s="8">
-        <v>19.100000000000001</v>
-      </c>
+      <c r="B63" s="8"/>
       <c r="C63" s="9"/>
       <c r="D63" s="10"/>
       <c r="E63" s="15"/>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="23"/>
-      <c r="B64" s="6">
-        <v>19.2</v>
-      </c>
+      <c r="B64" s="6"/>
       <c r="C64" s="11"/>
       <c r="D64" s="12"/>
       <c r="E64" s="12"/>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="23"/>
-      <c r="B65" s="6">
-        <v>19.3</v>
-      </c>
+      <c r="B65" s="6"/>
       <c r="C65" s="11"/>
       <c r="D65" s="12"/>
       <c r="E65" s="12"/>
     </row>
     <row r="66" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="24"/>
-      <c r="B66" s="7">
-        <v>19.399999999999999</v>
-      </c>
+      <c r="B66" s="7"/>
       <c r="C66" s="13"/>
       <c r="D66" s="14"/>
       <c r="E66" s="14"/>
@@ -1511,120 +1430,78 @@
       <c r="A67" s="22">
         <v>20</v>
       </c>
-      <c r="B67" s="8">
-        <v>20.100000000000001</v>
-      </c>
+      <c r="B67" s="8"/>
       <c r="C67" s="9"/>
       <c r="D67" s="10"/>
       <c r="E67" s="15"/>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="23"/>
-      <c r="B68" s="6">
-        <v>20.2</v>
-      </c>
+      <c r="B68" s="6"/>
       <c r="C68" s="11"/>
       <c r="D68" s="12"/>
       <c r="E68" s="12"/>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="23"/>
-      <c r="B69" s="6">
-        <v>20.3</v>
-      </c>
+      <c r="B69" s="6"/>
       <c r="C69" s="11"/>
       <c r="D69" s="12"/>
       <c r="E69" s="12"/>
     </row>
     <row r="70" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="24"/>
-      <c r="B70" s="7">
-        <v>20.399999999999999</v>
-      </c>
+      <c r="B70" s="7"/>
       <c r="C70" s="13"/>
       <c r="D70" s="14"/>
       <c r="E70" s="14"/>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A71" s="22">
+      <c r="A71" s="29">
         <v>21</v>
       </c>
-      <c r="B71" s="8">
-        <v>21.1</v>
-      </c>
+      <c r="B71" s="8"/>
       <c r="C71" s="9"/>
       <c r="D71" s="10"/>
       <c r="E71" s="15"/>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A72" s="23"/>
-      <c r="B72" s="6">
-        <v>21.2</v>
-      </c>
+      <c r="A72" s="30"/>
+      <c r="B72" s="6"/>
       <c r="C72" s="11"/>
       <c r="D72" s="12"/>
       <c r="E72" s="12"/>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A73" s="23"/>
-      <c r="B73" s="6">
-        <v>21.3</v>
-      </c>
+      <c r="A73" s="30"/>
+      <c r="B73" s="6"/>
       <c r="C73" s="11"/>
       <c r="D73" s="12"/>
       <c r="E73" s="12"/>
     </row>
     <row r="74" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="24"/>
-      <c r="B74" s="7">
-        <v>21.4</v>
-      </c>
+      <c r="A74" s="31"/>
+      <c r="B74" s="7"/>
       <c r="C74" s="13"/>
       <c r="D74" s="14"/>
       <c r="E74" s="14"/>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A75" s="22">
-        <v>22</v>
-      </c>
-      <c r="B75" s="8">
-        <v>22.1</v>
-      </c>
-      <c r="C75" s="9"/>
-      <c r="D75" s="10"/>
-      <c r="E75" s="15"/>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A76" s="23"/>
-      <c r="B76" s="6">
-        <v>22.2</v>
-      </c>
-      <c r="C76" s="11"/>
-      <c r="D76" s="12"/>
-      <c r="E76" s="12"/>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A77" s="23"/>
-      <c r="B77" s="6">
-        <v>22.3</v>
-      </c>
-      <c r="C77" s="11"/>
-      <c r="D77" s="12"/>
-      <c r="E77" s="12"/>
-    </row>
-    <row r="78" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="24"/>
-      <c r="B78" s="7">
-        <v>22.4</v>
-      </c>
-      <c r="C78" s="13"/>
-      <c r="D78" s="14"/>
-      <c r="E78" s="14"/>
+    <row r="75" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="B75" s="36"/>
+      <c r="C75" s="33"/>
+      <c r="D75" s="32">
+        <f>SUM(D3:D74)</f>
+        <v>7</v>
+      </c>
+      <c r="E75" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="20">
     <mergeCell ref="A71:A74"/>
-    <mergeCell ref="A75:A78"/>
+    <mergeCell ref="A75:B75"/>
     <mergeCell ref="A51:A54"/>
     <mergeCell ref="A55:A58"/>
     <mergeCell ref="A59:A62"/>
@@ -1645,7 +1522,7 @@
     <mergeCell ref="A11:A14"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E78" xr:uid="{2880A2A2-9C31-4F15-8D16-50BB4E39E68E}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E74" xr:uid="{2880A2A2-9C31-4F15-8D16-50BB4E39E68E}">
       <formula1>"Fully,Partially,Not Done"</formula1>
     </dataValidation>
   </dataValidations>
